--- a/biology/Histoire de la zoologie et de la botanique/John_Abbot/John_Abbot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Abbot/John_Abbot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Abbot est un entomologiste et un ornithologue américain, né le 31 mai ou 1er juin 1751 à Londres et mort en décembre 1840 ou janvier 1841 dans le comté de Bulloch en Géorgie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De grands pans de la vie d’Abbot restent aujourd’hui encore inconnus. Il est le fils le plus âgé de James Abbot, avoué, et d’Ann née Clousinger. Son père encourage son intérêt pour les insectes et l’art. John Abbot étudie le dessin et la gravure avec le graveur Jacob Bonneau (1741-1786). Il montre un très grand talent d’illustrateur. Il travaille à l’étude de son père de 1769 à 1773. Un groupe de naturalistes dirigé par Dru Drury (1725-1804) et la Royal Society engagent Abbot pour aller étudier et récolter des spécimens d’histoire naturelle en Virginie.
 Il séjourne en Virginie de 1773 à 1775 puis s’installe en Géorgie. Il reçoit de la terre après avoir servi comme volontaire dans la guerre d’Indépendance. Il vit jusqu’à vers 1795 comme planteur. Il réalise plusieurs ensembles d’illustrations sur les oiseaux, sans doute 1 300. La plupart sont conservées dans diverses institutions comme la British Library ou à Harvard, d’autres ont été dispersées lors d’une vente aux enchères en 1980. Ses descriptions sont influencées par John Latham (1740-1837).
